--- a/medicine/Médecine vétérinaire/Philippe_Benoit/Philippe_Benoit.xlsx
+++ b/medicine/Médecine vétérinaire/Philippe_Benoit/Philippe_Benoit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Benoit, né le 19 septembre 1964, est un cavalier français d'endurance et un vétérinaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Jeux équestres mondiaux de 2006 en Aix-la-Chapelle, il remporte la médaille d'or en endurance par équipes, avec Virginie Atger et Pascale Dietsch[1].
-Diplômé de l'École nationale vétérinaire d'Alfort en 1989 et enseignant en nutrition des chevaux, il fonde la Clinique Équine des Bréviaires en 1993[2]. Il est le vétérinaire de l'équipe de France d'équitation de 1992 à 2000, et de l'équipe d'Arabie saoudite aux Jeux olympiques d'été de 2012[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Jeux équestres mondiaux de 2006 en Aix-la-Chapelle, il remporte la médaille d'or en endurance par équipes, avec Virginie Atger et Pascale Dietsch.
+Diplômé de l'École nationale vétérinaire d'Alfort en 1989 et enseignant en nutrition des chevaux, il fonde la Clinique Équine des Bréviaires en 1993. Il est le vétérinaire de l'équipe de France d'équitation de 1992 à 2000, et de l'équipe d'Arabie saoudite aux Jeux olympiques d'été de 2012.
 </t>
         </is>
       </c>
